--- a/streaming/iterator_counters.xlsx
+++ b/streaming/iterator_counters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\xlslim-code-samples\streaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9302CD-D5AE-49B4-ACF1-05C8A0019208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F615A605-1C98-40AE-B711-864175D17CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{257F9B7E-B69A-46EF-8C88-E8306DB661FD}"/>
   </bookViews>
@@ -89,10 +89,34 @@
     <t>Async Numpy Array Counter</t>
   </si>
   <si>
-    <t>This workbook shows how iterators can stream data into Excel using xlSlim. Usually you would use generator functions to build iterators, however sometimes you need the finer control offered by an iterator class.
+    <r>
+      <t xml:space="preserve">This workbook shows how iterators can stream data into Excel using xlSlim. Usually you would use generator functions to build iterators, however sometimes you need the finer control offered by an iterator class.
 The Python module iterator_counters.py has two counter classes. One is a regular Python iterator with a __iter__ and __next__, which turns the class into an iterator. The second is a slightly more advanced Python class that asynchronously generates values.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Always use aync Python iterators where possible, they are faster and more efficient!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Cells C6 and D6 show how the classes are exposed in Excel as regular worksheet functions, all the complexity of streaming data is taken care of internally within xlSlim.
 Cells A10 and C10 show how numpy arrays can be streamed into Excel. Indeed any supported objects can be streamed. Cells B13 and D13 show how the object cache handles can be passed into xlSlim functions just the same as other xlSlim functions returning cached objects.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -167,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -214,46 +238,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -262,7 +246,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -275,19 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -314,41 +286,39 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_3f1109884a8745a09e248dbb23c5846d">
+    <main first="rtdsrv_b8b31720a2904992bee66992cab2148e">
       <tp t="s">
-        <v>AsyncArrayCounter/100/5@100</v>
+        <v>RTD/32093@3490</v>
         <stp/>
         <stp>AsyncArrayCounter</stp>
-        <stp>100</stp>
-        <stp>5</stp>
+        <stp>32093</stp>
         <tr r="C10" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_3f1109884a8745a09e248dbb23c5846d">
+    <main first="rtdsrv_b8b31720a2904992bee66992cab2148e">
       <tp t="s">
-        <v>ArrayCounter/100/5@100</v>
+        <v>RTD/32093@4000</v>
         <stp/>
         <stp>ArrayCounter</stp>
-        <stp>100</stp>
-        <stp>5</stp>
+        <stp>32093</stp>
         <tr r="A10" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv_b8b31720a2904992bee66992cab2148e">
       <tp>
-        <v>99</v>
+        <v>999</v>
         <stp/>
         <stp>AsyncCounter</stp>
-        <stp>100</stp>
-        <stp>5</stp>
+        <stp>32093</stp>
         <tr r="D6" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_3f1109884a8745a09e248dbb23c5846d">
+    <main first="rtdsrv_b8b31720a2904992bee66992cab2148e">
       <tp>
-        <v>99</v>
+        <v>999</v>
         <stp/>
         <stp>Counter</stp>
-        <stp>100</stp>
-        <stp>5</stp>
+        <stp>32093</stp>
         <tr r="C6" s="1"/>
       </tp>
     </main>
@@ -653,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774E7E1C-D275-4DD4-9028-FA14541EA3B8}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -684,7 +654,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
@@ -694,14 +664,14 @@
         <f>B1&amp;"\iterator_counters.py"</f>
         <v>D:\github\xlslim-code-samples\streaming\iterator_counters.py</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
@@ -709,26 +679,26 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" ref="B3">_xll.RegisterPyModule(B2)</f>
-        <v>Initialised the Python environment at C:\Users\russe\anaconda3\envs\py37. Registered D:\github\xlslim-code-samples\streaming\iterator_counters.py</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
+        <v>Registered D:\github\xlslim-code-samples\streaming\iterator_counters.py</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="5" t="s">
@@ -737,64 +707,64 @@
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="2" cm="1">
         <f t="array" ref="C6">_xll.Counter(B6,B7)</f>
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="D6" s="2" cm="1">
         <f t="array" ref="D6">_xll.AsyncCounter(B6,B7)</f>
-        <v>99</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
+        <v>999</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="6">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
@@ -803,80 +773,80 @@
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="str" cm="1">
         <f t="array" ref="A10">_xll.ArrayCounter(B6,B7)</f>
-        <v>ArrayCounter/100/5@100</v>
+        <v>RTD/32093@4000</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="str" cm="1">
         <f t="array" ref="C10">_xll.AsyncArrayCounter(B6,B7)</f>
-        <v>AsyncArrayCounter/100/5@100</v>
+        <v>RTD/32093@3490</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="2" cm="1">
         <f t="array" ref="A11:B12">_xll.ViewPyObject(A10)</f>
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="B11" s="2">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="C11" s="2" cm="1">
         <f t="array" ref="C11:D12">_xll.ViewPyObject(C10)</f>
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="D11" s="2">
-        <v>99</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
+        <v>999</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="B12" s="2">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="C12" s="2">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="D12" s="2">
-        <v>99</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
+        <v>999</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
@@ -884,37 +854,57 @@
       </c>
       <c r="B13" s="2" cm="1">
         <f t="array" ref="B13">_xll.array_sum_from_handle(A10)</f>
-        <v>396</v>
+        <v>3996</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" cm="1">
         <f t="array" ref="D13">_xll.array_sum_from_handle(C10)</f>
-        <v>396</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
+        <v>3996</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:L14"/>
+    <mergeCell ref="E1:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -931,6 +921,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056A28DAB99C48B469009752D21F8474A" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3725108ba1e248dd961cbde49d36f75">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58a034177a2e5a667d336d2ca3036430" ns3:_="">
     <xsd:import namespace="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
@@ -1062,12 +1058,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
   <ds:schemaRefs>
@@ -1077,6 +1067,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C9D94B-68A3-4C5A-8543-29DBB1AA8066}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1092,20 +1098,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>